--- a/xlsx/硼砂_intext.xlsx
+++ b/xlsx/硼砂_intext.xlsx
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%9D%E8%86%A0%E9%9B%BB%E6%B3%B3</t>
   </si>
   <si>
-    <t>凝膠電泳</t>
+    <t>凝胶电泳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%8C%96%E5%AD%A6</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E4%B8%B8</t>
   </si>
   <si>
-    <t>貢丸</t>
+    <t>贡丸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8C%BB</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%BC%E9%85%B8%E9%B9%BD</t>
   </si>
   <si>
-    <t>硼酸鹽</t>
+    <t>硼酸盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E7%A1%BC%E9%85%B8%E9%92%A0</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2235,7 @@
         <v>46</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -2264,7 +2264,7 @@
         <v>104</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -2293,7 +2293,7 @@
         <v>48</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -2322,7 +2322,7 @@
         <v>106</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
